--- a/medicine/Psychotrope/Caffè-Pasticceria_Cova/Caffè-Pasticceria_Cova.xlsx
+++ b/medicine/Psychotrope/Caffè-Pasticceria_Cova/Caffè-Pasticceria_Cova.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caff%C3%A8-Pasticceria_Cova</t>
+          <t>Caffè-Pasticceria_Cova</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Caffè-Pasticceria Cova est un café-traiteur situé via Montenapoleone à Milan, en Lombardie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caff%C3%A8-Pasticceria_Cova</t>
+          <t>Caffè-Pasticceria_Cova</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondé en 1817 à côté de la Scala par Antonio Cova, un soldat napoléonien, l'établissement devient rapidement le rendez-vous mondain de l'après-spectacle où l'on déguste, en buvant un café, une pâtisserie aux sons des violons.
 En 1848, lors des cinq journées, le caffè est le lieu de rencontre des partisans qui libèrent la ville de l'occupant autrichien. 
